--- a/Aulas de Excel.xlsx
+++ b/Aulas de Excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luciano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575" firstSheet="22" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Formatação Condicional" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,52 @@
     <sheet name="BDExtrair" sheetId="14" r:id="rId13"/>
     <sheet name="Função SeErro" sheetId="15" r:id="rId14"/>
     <sheet name="Função Escolher" sheetId="16" r:id="rId15"/>
+    <sheet name="Gráfico" sheetId="17" r:id="rId16"/>
+    <sheet name="Função Corresp" sheetId="18" r:id="rId17"/>
+    <sheet name="Função Matricial" sheetId="19" r:id="rId18"/>
+    <sheet name="Função Solver" sheetId="20" r:id="rId19"/>
+    <sheet name="Tabela Dinâmica" sheetId="21" r:id="rId20"/>
+    <sheet name="Resultado Tab Dinamica" sheetId="22" r:id="rId21"/>
+    <sheet name="Folha de Pagamento" sheetId="23" r:id="rId22"/>
+    <sheet name="Filtro Avançado com Macro" sheetId="24" r:id="rId23"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'Filtro Avançado com Macro'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="22">'Filtro Avançado com Macro'!$E$5:$G$5</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="22">'Filtro Avançado com Macro'!$E$1:$G$2</definedName>
     <definedName name="Dados">BDExtrair!$A$4:$C$10</definedName>
     <definedName name="Descontos">Proch!$B$23:$F$25</definedName>
     <definedName name="Imc">'Procv Exponenciação'!$A$13:$C$17</definedName>
     <definedName name="Lanches">McDonalds!$A$4:$E$11</definedName>
     <definedName name="Prova">'Formatação Condicional'!$H$3:$I$7</definedName>
     <definedName name="Sobremesas">McDonalds!$G$4:$I$7</definedName>
+    <definedName name="solver_adj" localSheetId="18" hidden="1">'Função Solver'!$I$10:$I$13</definedName>
+    <definedName name="solver_cvg" localSheetId="18" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="18" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="18" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="18" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="18" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="18" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="18" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="18" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="18" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="18" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="18" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="18" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="18" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="18" hidden="1">'Função Solver'!$I$14</definedName>
+    <definedName name="solver_pre" localSheetId="18" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="18" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="18" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="18" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="18" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="18" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="18" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="18" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="18" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="18" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="18" hidden="1">750</definedName>
+    <definedName name="solver_ver" localSheetId="18" hidden="1">3</definedName>
     <definedName name="Tab_Clientes">'Nota Fiscal'!$G$15:$J$22</definedName>
     <definedName name="Tab_Produtos">'Nota Fiscal'!$A$15:$E$22</definedName>
     <definedName name="TabelaA">'Procv Exponenciação'!$C$30:$D$34</definedName>
@@ -42,6 +80,9 @@
     <definedName name="Trabalho">'Formatação Condicional'!$C$8:$G$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId24"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -198,8 +239,47 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Helena</author>
+  </authors>
+  <commentList>
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>A Função Matricial não permite excluir dados.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Para realizar este cálculo, é necessário pressionar Ctrl + Shift + Enter, por se tratar de uma Matriz.
+A Tecla F9 mostra a base de dados na qual foi inserida.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="499">
   <si>
     <t>CLASSE</t>
   </si>
@@ -1312,6 +1392,390 @@
   </si>
   <si>
     <t>DIA DA SEMANA COM FUNÇÃO SE</t>
+  </si>
+  <si>
+    <t>QTDE DE VENDAS</t>
+  </si>
+  <si>
+    <t>CARROS</t>
+  </si>
+  <si>
+    <t>JANEIRO</t>
+  </si>
+  <si>
+    <t>FEVEREIRO</t>
+  </si>
+  <si>
+    <t>MARÇO</t>
+  </si>
+  <si>
+    <t>Sandeiro</t>
+  </si>
+  <si>
+    <t>Vectra</t>
+  </si>
+  <si>
+    <t>Sentra</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>Cruize</t>
+  </si>
+  <si>
+    <t>Onix</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>CÓDIGO</t>
+  </si>
+  <si>
+    <t>VALOR COMPRA</t>
+  </si>
+  <si>
+    <t>LUCRO</t>
+  </si>
+  <si>
+    <t>VALOR VENDA</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Ultrabook</t>
+  </si>
+  <si>
+    <t>Netbook</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Macrobook</t>
+  </si>
+  <si>
+    <t>All in One</t>
+  </si>
+  <si>
+    <t>LINHA</t>
+  </si>
+  <si>
+    <t>TÍTULO</t>
+  </si>
+  <si>
+    <t>COLUNA</t>
+  </si>
+  <si>
+    <t>valor venda</t>
+  </si>
+  <si>
+    <t>FUNÇÃO CORRESP COM PROCV</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÃO 1</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÃO2</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÃO 3</t>
+  </si>
+  <si>
+    <t>CONSULTAR:</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÃO</t>
+  </si>
+  <si>
+    <t>Computador</t>
+  </si>
+  <si>
+    <t>Na fórmula Corresp, marcamos os titulos na matriz desejada.</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>sara</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Replicar CTrl + Enter</t>
+  </si>
+  <si>
+    <t>Transformar em Matriz Ctrl + Shift + Enter</t>
+  </si>
+  <si>
+    <t>Verdadeiro = 1</t>
+  </si>
+  <si>
+    <t>Falso = 0</t>
+  </si>
+  <si>
+    <t>USANDO FUNÇÃO MATRIZ</t>
+  </si>
+  <si>
+    <t>Cópia Comum</t>
+  </si>
+  <si>
+    <t>Cópia com Matriz</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Soma Matricial:</t>
+  </si>
+  <si>
+    <t>EXEMPLO DE MATRIZ COM SEERRO</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>Segmento</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Marcenaria</t>
+  </si>
+  <si>
+    <t>Alimentícios</t>
+  </si>
+  <si>
+    <t>Construção</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Valor Máximo</t>
+  </si>
+  <si>
+    <t>Valor Mínimo</t>
+  </si>
+  <si>
+    <t>Valor Final</t>
+  </si>
+  <si>
+    <t>Caderno</t>
+  </si>
+  <si>
+    <t>Caneta</t>
+  </si>
+  <si>
+    <t>Sulfite</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Régua</t>
+  </si>
+  <si>
+    <t>Alicate</t>
+  </si>
+  <si>
+    <t>Geladeira</t>
+  </si>
+  <si>
+    <t>Fogão</t>
+  </si>
+  <si>
+    <t>Disponível</t>
+  </si>
+  <si>
+    <t>Esta opção permite adequar valores ou qtdes para caber exatamente no valor disponivel.</t>
+  </si>
+  <si>
+    <t>Itens</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>cama</t>
+  </si>
+  <si>
+    <t>fogão</t>
+  </si>
+  <si>
+    <t>mesa</t>
+  </si>
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Sônia</t>
+  </si>
+  <si>
+    <t>Sandro</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Cobrança</t>
+  </si>
+  <si>
+    <t>Escritório</t>
+  </si>
+  <si>
+    <t>Atendimento</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Custo Salarial:</t>
+  </si>
+  <si>
+    <t>É importante que a tabela tenha titulos.</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Soma de Salário</t>
+  </si>
+  <si>
+    <t>Nº de pessoas</t>
+  </si>
+  <si>
+    <t>Média de Salário2</t>
+  </si>
+  <si>
+    <t>FOLHA DE PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DESCONTOS</t>
+  </si>
+  <si>
+    <t>Funcionários</t>
+  </si>
+  <si>
+    <t>Salário Bruto</t>
+  </si>
+  <si>
+    <t>INSS</t>
+  </si>
+  <si>
+    <t>V.T.</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>Nº de Pessoas com Plano</t>
+  </si>
+  <si>
+    <t>Plano de Saúde</t>
+  </si>
+  <si>
+    <t>Atrasos / Falta</t>
+  </si>
+  <si>
+    <t>Valor Hora Trabalhada</t>
+  </si>
+  <si>
+    <t>Hora Extra</t>
+  </si>
+  <si>
+    <t>Nº Filhos</t>
+  </si>
+  <si>
+    <t>Salário Fam.</t>
+  </si>
+  <si>
+    <t>Nº Horas Extras</t>
+  </si>
+  <si>
+    <t>Acréscimos</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Descontos</t>
+  </si>
+  <si>
+    <t>Inss</t>
+  </si>
+  <si>
+    <t>V. Transporte</t>
+  </si>
+  <si>
+    <t>Sal. Familia</t>
+  </si>
+  <si>
+    <t>FGTS</t>
+  </si>
+  <si>
+    <t>IRRF</t>
+  </si>
+  <si>
+    <t>Bônus</t>
+  </si>
+  <si>
+    <t>Funcionário</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Janete</t>
+  </si>
+  <si>
+    <t>Manutenção</t>
+  </si>
+  <si>
+    <t>Operador</t>
+  </si>
+  <si>
+    <t>Técnica</t>
+  </si>
+  <si>
+    <t>Supervisora</t>
+  </si>
+  <si>
+    <t>Atendente</t>
+  </si>
+  <si>
+    <t>Manobrista</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1786,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,11 +1858,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="0"/>
@@ -1421,8 +1880,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1610,6 +2103,48 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1741,7 +2276,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1928,214 +2463,19 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2144,9 +2484,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2165,6 +2502,348 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="33" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="35" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2173,7 +2852,228 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2304,6 +3204,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFED7D31"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2313,6 +3218,1828 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Qtde</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de vendas 2022</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="101600"/>
+        </a:effectLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="45"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="27000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sandeiro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4868711717395612E-17"/>
+                  <c:y val="-6.9611780455153954E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-178B-4E9D-978D-713354544F2B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>JANEIRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEVEREIRO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MARÇO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-178B-4E9D-978D-713354544F2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vectra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>JANEIRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEVEREIRO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MARÇO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-178B-4E9D-978D-713354544F2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sentra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>JANEIRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEVEREIRO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MARÇO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-178B-4E9D-978D-713354544F2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Siena</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>JANEIRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEVEREIRO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MARÇO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-178B-4E9D-978D-713354544F2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cruize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>JANEIRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEVEREIRO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MARÇO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-178B-4E9D-978D-713354544F2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Onix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5150040551500343E-2"/>
+                  <c:y val="-0.34805890227576974"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-178B-4E9D-978D-713354544F2B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>JANEIRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEVEREIRO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MARÇO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-178B-4E9D-978D-713354544F2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="84"/>
+        <c:gapDepth val="53"/>
+        <c:shape val="box"/>
+        <c:axId val="302343951"/>
+        <c:axId val="302346031"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="302343951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302346031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="302346031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="302343951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="291">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:tint val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="88000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="88000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg2">
+          <a:lumMod val="75000"/>
+          <a:alpha val="27000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2669,7 +5396,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11265" name="Drop Down 1" hidden="1">
+            <xdr:cNvPr id="11265" name="Drop Down 1" descr="Caixa de Combinação" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11265"/>
@@ -2719,13 +5446,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>104776</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>66676</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3730,6 +6457,491 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Consultar" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo Arredondado 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="1924050"/>
+          <a:ext cx="1562100" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1600" b="1"/>
+            <a:t>Consultar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Limpar" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo Arredondado 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="1924050"/>
+          <a:ext cx="1562100" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1600" b="1"/>
+            <a:t>Limpar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Helena" refreshedDate="44906.604385416664" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D9" sheet="Tabela Dinâmica"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Nome" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Pedro"/>
+        <s v="Carla"/>
+        <s v="Fred"/>
+        <s v="Sônia"/>
+        <s v="Sandro"/>
+        <s v="Maria"/>
+        <s v="Fátima"/>
+        <s v="Alberto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cargo" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Gerente"/>
+        <s v="Cobrança"/>
+        <s v="Escritório"/>
+        <s v="Atendimento"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Salário" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="980" maxValue="2300"/>
+    </cacheField>
+    <cacheField name="Setor" numFmtId="0">
+      <sharedItems count="4">
+        <s v="RH"/>
+        <s v="Financeiro"/>
+        <s v="Diretoria"/>
+        <s v="Operação"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2300"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1300"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="980"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="2300"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="1300"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="1100"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="1350"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:E7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="9">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Nº de pessoas" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="%" fld="2" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Soma de Salário" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Média de Salário2" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="20">
+    <format dxfId="20">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea field="3" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisPage" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea field="3" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisPage" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -4028,10 +7240,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="81"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -4191,7 +7403,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="133" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -4214,7 +7426,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
@@ -4240,13 +7452,13 @@
     <mergeCell ref="A8:A9"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"reprovado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"reprovado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"aprovado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4284,47 +7496,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="187" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="143" t="s">
+      <c r="E1" s="188"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="187" t="s">
         <v>260</v>
       </c>
-      <c r="H1" s="144"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="143" t="s">
+      <c r="H1" s="188"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="187" t="s">
         <v>261</v>
       </c>
-      <c r="K1" s="144"/>
+      <c r="K1" s="188"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="191" t="s">
         <v>275</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="105" t="s">
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="156" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105" t="s">
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156" t="s">
         <v>278</v>
       </c>
-      <c r="K3" s="105"/>
+      <c r="K3" s="156"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="86" t="s">
         <v>282</v>
       </c>
       <c r="B4" s="5"/>
@@ -4339,7 +7551,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="86" t="s">
         <v>281</v>
       </c>
       <c r="B5" s="5"/>
@@ -4354,7 +7566,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="86" t="s">
         <v>280</v>
       </c>
       <c r="B6" s="5"/>
@@ -4369,7 +7581,7 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="86" t="s">
         <v>279</v>
       </c>
       <c r="B7" s="5"/>
@@ -4384,7 +7596,7 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="86" t="s">
         <v>276</v>
       </c>
       <c r="B8" s="5"/>
@@ -4399,19 +7611,19 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="86" t="s">
         <v>273</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4880,11 +8092,11 @@
       <c r="E4" s="71" t="s">
         <v>332</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4" s="192">
         <f>DSUM(A1:C10,C1,E1:G2)</f>
         <v>975</v>
       </c>
-      <c r="G4" s="149"/>
+      <c r="G4" s="193"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
@@ -4957,13 +8169,13 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"teclado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"fonte"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"mouse"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5004,23 +8216,23 @@
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="26"/>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="194" t="s">
         <v>345</v>
       </c>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="105" t="str">
+      <c r="G3" s="156" t="str">
         <f>DGET(Dados,A4,A1:C2)</f>
         <v>Marta Fernandes</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
     </row>
     <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
@@ -5032,15 +8244,15 @@
       <c r="C4" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="88" t="s">
         <v>334</v>
       </c>
-      <c r="G4" s="98" t="str">
+      <c r="G4" s="149" t="str">
         <f>DGET(Dados,B4,A1:C2)</f>
         <v>Professora</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
@@ -5052,18 +8264,18 @@
       <c r="C5" s="15">
         <v>2500</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="G5" s="153">
+      <c r="G5" s="195">
         <f>DGET(Dados,C4,A1:C2)</f>
         <v>1300</v>
       </c>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="87" t="s">
         <v>336</v>
       </c>
       <c r="B6" s="58" t="s">
@@ -5074,7 +8286,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="87" t="s">
         <v>337</v>
       </c>
       <c r="B7" s="58" t="s">
@@ -5085,7 +8297,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="87" t="s">
         <v>338</v>
       </c>
       <c r="B8" s="58" t="s">
@@ -5096,7 +8308,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="87" t="s">
         <v>339</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -5107,7 +8319,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="87" t="s">
         <v>340</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -5163,7 +8375,7 @@
       <c r="D1" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="89" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5175,11 +8387,11 @@
         <v>25</v>
       </c>
       <c r="C2" s="69"/>
-      <c r="D2" s="155">
+      <c r="D2" s="90">
         <f>C2-B2</f>
         <v>-25</v>
       </c>
-      <c r="E2" s="156" t="str">
+      <c r="E2" s="91" t="str">
         <f>IFERROR(D2/C2,"Aguardando valor")</f>
         <v>Aguardando valor</v>
       </c>
@@ -5192,11 +8404,11 @@
         <v>80</v>
       </c>
       <c r="C3" s="69"/>
-      <c r="D3" s="155">
+      <c r="D3" s="90">
         <f t="shared" ref="D3:D9" si="0">C3-B3</f>
         <v>-80</v>
       </c>
-      <c r="E3" s="156" t="str">
+      <c r="E3" s="91" t="str">
         <f t="shared" ref="E3:E9" si="1">IFERROR(D3/C3,"Aguardando valor")</f>
         <v>Aguardando valor</v>
       </c>
@@ -5211,11 +8423,11 @@
       <c r="C4" s="69">
         <v>550</v>
       </c>
-      <c r="D4" s="155">
+      <c r="D4" s="90">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E4" s="156">
+      <c r="E4" s="91">
         <f t="shared" si="1"/>
         <v>0.36363636363636365</v>
       </c>
@@ -5230,11 +8442,11 @@
       <c r="C5" s="69">
         <v>22</v>
       </c>
-      <c r="D5" s="155">
+      <c r="D5" s="90">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E5" s="156">
+      <c r="E5" s="91">
         <f t="shared" si="1"/>
         <v>0.31818181818181818</v>
       </c>
@@ -5249,11 +8461,11 @@
       <c r="C6" s="69">
         <v>290</v>
       </c>
-      <c r="D6" s="155">
+      <c r="D6" s="90">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E6" s="156">
+      <c r="E6" s="91">
         <f t="shared" si="1"/>
         <v>0.17241379310344829</v>
       </c>
@@ -5268,11 +8480,11 @@
       <c r="C7" s="69">
         <v>85</v>
       </c>
-      <c r="D7" s="155">
+      <c r="D7" s="90">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E7" s="156">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.17647058823529413</v>
       </c>
@@ -5287,11 +8499,11 @@
       <c r="C8" s="69">
         <v>220</v>
       </c>
-      <c r="D8" s="155">
+      <c r="D8" s="90">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E8" s="156">
+      <c r="E8" s="91">
         <f t="shared" si="1"/>
         <v>0.31818181818181818</v>
       </c>
@@ -5306,11 +8518,11 @@
       <c r="C9" s="69">
         <v>510</v>
       </c>
-      <c r="D9" s="155">
+      <c r="D9" s="90">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E9" s="156">
+      <c r="E9" s="91">
         <f t="shared" si="1"/>
         <v>1.9607843137254902E-2</v>
       </c>
@@ -5324,7 +8536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -5442,44 +8654,44 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="196" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="159" t="s">
+      <c r="B17" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="E17" s="160" t="s">
+      <c r="E17" s="94" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="158">
+      <c r="A18" s="92">
         <f ca="1">TODAY()</f>
-        <v>44899</v>
-      </c>
-      <c r="B18" s="161">
+        <v>44906</v>
+      </c>
+      <c r="B18" s="95">
         <f ca="1">NOW()</f>
-        <v>44899.697873726851</v>
+        <v>44906.68221712963</v>
       </c>
       <c r="C18" s="52">
         <f ca="1">DAY(B18)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D18" s="52">
         <f ca="1">MONTH(B18)</f>
@@ -5491,17 +8703,17 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="B20" s="158">
+      <c r="B20" s="92">
         <v>29944</v>
       </c>
     </row>
@@ -5509,16 +8721,16 @@
       <c r="A21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160" t="s">
+      <c r="A22" s="94" t="s">
         <v>366</v>
       </c>
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="D22" s="160" t="s">
+      <c r="D22" s="94" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5533,21 +8745,21 @@
       </c>
       <c r="C23" s="52">
         <f ca="1">MINUTE(B18)</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D23" s="52">
         <f ca="1">SECOND(B18)</f>
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
     </row>
     <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="94" t="s">
         <v>369</v>
       </c>
       <c r="B25" s="52" t="str">
@@ -5559,7 +8771,7 @@
       <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="94" t="s">
         <v>370</v>
       </c>
       <c r="B27" s="52" t="str">
@@ -5576,6 +8788,1426 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="197" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="99">
+        <v>12</v>
+      </c>
+      <c r="C3" s="99">
+        <v>8</v>
+      </c>
+      <c r="D3" s="99">
+        <v>3</v>
+      </c>
+      <c r="E3" s="99">
+        <f>SUM(B3:D3)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="99">
+        <v>5</v>
+      </c>
+      <c r="C4" s="99">
+        <v>9</v>
+      </c>
+      <c r="D4" s="99">
+        <v>2</v>
+      </c>
+      <c r="E4" s="99">
+        <f t="shared" ref="E4:E8" si="0">SUM(B4:D4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="99">
+        <v>9</v>
+      </c>
+      <c r="C5" s="99">
+        <v>16</v>
+      </c>
+      <c r="D5" s="99">
+        <v>16</v>
+      </c>
+      <c r="E5" s="99">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="99">
+        <v>10</v>
+      </c>
+      <c r="C6" s="99">
+        <v>14</v>
+      </c>
+      <c r="D6" s="99">
+        <v>15</v>
+      </c>
+      <c r="E6" s="99">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="99">
+        <v>20</v>
+      </c>
+      <c r="C7" s="99">
+        <v>5</v>
+      </c>
+      <c r="D7" s="99">
+        <v>10</v>
+      </c>
+      <c r="E7" s="99">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" s="99">
+        <v>1</v>
+      </c>
+      <c r="C8" s="99">
+        <v>2</v>
+      </c>
+      <c r="D8" s="99">
+        <v>8</v>
+      </c>
+      <c r="E8" s="99">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="100" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" s="100">
+        <f>SUM(E3:E8)</f>
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="106" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="107">
+        <v>1</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="108">
+        <v>1300</v>
+      </c>
+      <c r="D2" s="109">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="110">
+        <f>C2+(C2*D2)</f>
+        <v>1430</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H2" s="99">
+        <f>IFERROR(MATCH(G2,B2:B7,0),"Insira nome do produto")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="107">
+        <v>2</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="108">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="109">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="110">
+        <f t="shared" ref="E3:E7" si="0">C3+(C3*D3)</f>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="107">
+        <v>3</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="108">
+        <v>900</v>
+      </c>
+      <c r="D4" s="109">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="110">
+        <f t="shared" si="0"/>
+        <v>972</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>394</v>
+      </c>
+      <c r="H4" s="106" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="107">
+        <v>4</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="108">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="109">
+        <v>0.12</v>
+      </c>
+      <c r="E5" s="110">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="H5" s="99">
+        <f>IFERROR(MATCH(G5,A1:E1,0),"Insira o Título")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="107">
+        <v>5</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="108">
+        <v>6500</v>
+      </c>
+      <c r="D6" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="110">
+        <f t="shared" si="0"/>
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="107">
+        <v>6</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="108">
+        <v>2600</v>
+      </c>
+      <c r="D7" s="109">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="110">
+        <f t="shared" si="0"/>
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="198" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="116" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="69">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="69">
+        <v>1800</v>
+      </c>
+      <c r="D13" s="69">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="101" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="69">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="69">
+        <v>1600</v>
+      </c>
+      <c r="D14" s="69">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="69">
+        <v>3500</v>
+      </c>
+      <c r="C15" s="69">
+        <v>4200</v>
+      </c>
+      <c r="D15" s="69">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="199" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="E18" s="200" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="104" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="72" t="str">
+        <f>IFERROR(VLOOKUP(A20,A12:D15,MATCH(B20,A12:D12,0)),"Escolha o Produto")</f>
+        <v>Escolha o Produto</v>
+      </c>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:G21"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$B$2:$B$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20">
+      <formula1>$A$13:$A$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>$B$12:$D$12</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="119">
+        <f>SUM(C3:C12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="120">
+        <f t="array" ref="C3:C12">(A3:A12=D1)*1</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="124" t="str">
+        <f>IF(C3=0,"Não há cadastro nessa pesquisa","Encontrado")</f>
+        <v>Não há cadastro nessa pesquisa</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="120">
+        <v>0</v>
+      </c>
+      <c r="D4" s="124" t="str">
+        <f t="shared" ref="D4:D12" si="0">IF(C4=0,"Não há cadastro nessa pesquisa","Encontrado")</f>
+        <v>Não há cadastro nessa pesquisa</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="120">
+        <v>1</v>
+      </c>
+      <c r="D5" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrado</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="120">
+        <v>0</v>
+      </c>
+      <c r="D6" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Não há cadastro nessa pesquisa</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="120">
+        <v>0</v>
+      </c>
+      <c r="D7" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Não há cadastro nessa pesquisa</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="120">
+        <v>1</v>
+      </c>
+      <c r="D8" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrado</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="120">
+        <v>0</v>
+      </c>
+      <c r="D9" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Não há cadastro nessa pesquisa</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="120">
+        <v>0</v>
+      </c>
+      <c r="D10" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Não há cadastro nessa pesquisa</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="120">
+        <v>0</v>
+      </c>
+      <c r="D11" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Não há cadastro nessa pesquisa</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="120">
+        <v>1</v>
+      </c>
+      <c r="D12" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrado</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="204" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="204"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="204" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" s="204"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="204" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" s="204"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="204" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="204"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="202" t="s">
+        <v>412</v>
+      </c>
+      <c r="B19" s="202"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="122" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="122" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" s="203" t="s">
+        <v>414</v>
+      </c>
+      <c r="G20" s="203"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="72">
+        <v>25</v>
+      </c>
+      <c r="C21" s="101">
+        <v>50</v>
+      </c>
+      <c r="D21" s="47">
+        <f>B21*C21</f>
+        <v>1250</v>
+      </c>
+      <c r="E21" s="101" t="str">
+        <f t="shared" ref="E21:E26" si="1">A21:A26</f>
+        <v>Teclado</v>
+      </c>
+      <c r="F21" s="101" t="str">
+        <f t="array" ref="F21:F26">A21:A26</f>
+        <v>Teclado</v>
+      </c>
+      <c r="G21" s="121"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="72">
+        <v>120</v>
+      </c>
+      <c r="C22" s="101">
+        <v>10</v>
+      </c>
+      <c r="D22" s="47">
+        <f t="shared" ref="D22:D26" si="2">B22*C22</f>
+        <v>1200</v>
+      </c>
+      <c r="E22" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>Gabinete</v>
+      </c>
+      <c r="F22" s="101" t="str">
+        <v>Gabinete</v>
+      </c>
+      <c r="G22" s="121"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="72">
+        <v>15</v>
+      </c>
+      <c r="C23" s="101">
+        <v>200</v>
+      </c>
+      <c r="D23" s="47">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E23" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>Mouse</v>
+      </c>
+      <c r="F23" s="101" t="str">
+        <v>Mouse</v>
+      </c>
+      <c r="G23" s="121"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" s="72">
+        <v>600</v>
+      </c>
+      <c r="C24" s="101">
+        <v>5</v>
+      </c>
+      <c r="D24" s="47">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E24" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>Cpu</v>
+      </c>
+      <c r="F24" s="101" t="str">
+        <v>Cpu</v>
+      </c>
+      <c r="G24" s="121"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="72">
+        <v>400</v>
+      </c>
+      <c r="C25" s="101">
+        <v>8</v>
+      </c>
+      <c r="D25" s="47">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+      <c r="E25" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>Monitor</v>
+      </c>
+      <c r="F25" s="101" t="str">
+        <v>Monitor</v>
+      </c>
+      <c r="G25" s="121"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="72">
+        <v>250</v>
+      </c>
+      <c r="C26" s="101">
+        <v>12</v>
+      </c>
+      <c r="D26" s="47">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E26" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>HD</v>
+      </c>
+      <c r="F26" s="101" t="str">
+        <v>HD</v>
+      </c>
+      <c r="G26" s="121"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="101" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27" s="90">
+        <f>SUM(D21:D26)</f>
+        <v>14650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="201" t="s">
+        <v>416</v>
+      </c>
+      <c r="B29" s="201"/>
+      <c r="C29" s="72">
+        <f t="array" ref="C29">SUM(B21:B26*C21:C26)</f>
+        <v>14650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="201" t="s">
+        <v>417</v>
+      </c>
+      <c r="B31" s="201"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="201"/>
+    </row>
+    <row r="32" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="127" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="127" t="s">
+        <v>420</v>
+      </c>
+      <c r="D32" s="125" t="s">
+        <v>421</v>
+      </c>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="72">
+        <v>3200</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="72">
+        <v>1500</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>426</v>
+      </c>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="71" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="72">
+        <v>1400</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>424</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>427</v>
+      </c>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="72">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="72">
+        <v>1500</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>424</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>426</v>
+      </c>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
+        <v>418</v>
+      </c>
+      <c r="B38" s="72">
+        <v>850</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>424</v>
+      </c>
+      <c r="D38" s="101" t="s">
+        <v>427</v>
+      </c>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="71" t="s">
+        <v>418</v>
+      </c>
+      <c r="B39" s="72">
+        <v>900</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="D39" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" s="72">
+        <v>1600</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="72">
+        <v>4000</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="D41" s="101" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="72">
+        <v>3700</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="D42" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="102" t="s">
+        <v>420</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="102" t="s">
+        <v>421</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="102" t="s">
+        <v>428</v>
+      </c>
+      <c r="B48" s="102" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="e">
+        <f>IF($B$44=$A$32:$A$42,)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D12">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+      <formula>"Não há cadastro nessa pesquisa"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>"Encontrado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+      <formula1>$A$33:$A$35</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="101">
+        <v>1</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="69">
+        <v>15</v>
+      </c>
+      <c r="D2" s="130">
+        <v>49.428410564666549</v>
+      </c>
+      <c r="E2" s="90">
+        <f>C2*D2</f>
+        <v>741.4261584699982</v>
+      </c>
+      <c r="G2" s="205" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="101">
+        <v>2</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" s="69">
+        <v>2</v>
+      </c>
+      <c r="D3" s="130">
+        <v>492.37880752888736</v>
+      </c>
+      <c r="E3" s="90">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <v>984.75761505777473</v>
+      </c>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="101">
+        <v>3</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="69">
+        <v>25</v>
+      </c>
+      <c r="D4" s="130">
+        <v>77.561218561093469</v>
+      </c>
+      <c r="E4" s="90">
+        <f t="shared" si="0"/>
+        <v>1939.0304640273366</v>
+      </c>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="101">
+        <v>4</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="69">
+        <v>18</v>
+      </c>
+      <c r="D5" s="130">
+        <v>143.82683426922947</v>
+      </c>
+      <c r="E5" s="90">
+        <f t="shared" si="0"/>
+        <v>2588.8830168461304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="101">
+        <v>5</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="69">
+        <v>20</v>
+      </c>
+      <c r="D6" s="130">
+        <v>9.9695152296410185</v>
+      </c>
+      <c r="E6" s="90">
+        <f t="shared" si="0"/>
+        <v>199.39030459282037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="101">
+        <v>6</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="69">
+        <v>150</v>
+      </c>
+      <c r="D7" s="130">
+        <v>23.571026482845838</v>
+      </c>
+      <c r="E7" s="90">
+        <f t="shared" si="0"/>
+        <v>3535.6539724268755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="101">
+        <v>7</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="69">
+        <v>400</v>
+      </c>
+      <c r="D8" s="130">
+        <v>7.6097949697749545</v>
+      </c>
+      <c r="E8" s="90">
+        <f t="shared" si="0"/>
+        <v>3043.917987909982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="101">
+        <v>8</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="69">
+        <v>6</v>
+      </c>
+      <c r="D9" s="130">
+        <v>196.3418278416402</v>
+      </c>
+      <c r="E9" s="90">
+        <f t="shared" si="0"/>
+        <v>1178.0509670498411</v>
+      </c>
+      <c r="H9" t="s">
+        <v>441</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="101">
+        <v>9</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" s="69">
+        <v>8</v>
+      </c>
+      <c r="D10" s="130">
+        <v>15.968783596367199</v>
+      </c>
+      <c r="E10" s="90">
+        <f t="shared" si="0"/>
+        <v>127.75026877093759</v>
+      </c>
+      <c r="H10" t="s">
+        <v>442</v>
+      </c>
+      <c r="I10" s="206">
+        <v>311.49743056055587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="101">
+        <v>10</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="69">
+        <v>1300</v>
+      </c>
+      <c r="D11" s="130">
+        <v>4.5046224988682715</v>
+      </c>
+      <c r="E11" s="90">
+        <f t="shared" si="0"/>
+        <v>5856.0092485287532</v>
+      </c>
+      <c r="H11" t="s">
+        <v>443</v>
+      </c>
+      <c r="I11" s="206">
+        <v>215.42868564666091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="101">
+        <v>11</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" s="69">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="130">
+        <v>6.5367310455463681</v>
+      </c>
+      <c r="E12" s="90">
+        <f t="shared" si="0"/>
+        <v>9805.0965683195518</v>
+      </c>
+      <c r="H12" t="s">
+        <v>444</v>
+      </c>
+      <c r="I12" s="206">
+        <v>137.55432617257819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>445</v>
+      </c>
+      <c r="I13" s="206">
+        <v>85.519557620194064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="128">
+        <f>SUM(E2:E12)</f>
+        <v>29999.966572000005</v>
+      </c>
+      <c r="I14" s="206">
+        <f>SUM(I10:I13)</f>
+        <v>749.99999999998897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="E16" s="129">
+        <v>30000</v>
+      </c>
+      <c r="I16" s="206">
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:L4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -5601,13 +10233,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="12"/>
@@ -5621,20 +10253,20 @@
       <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="89"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="140"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
@@ -5667,7 +10299,7 @@
       <c r="I3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="89"/>
+      <c r="J3" s="140"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -5701,7 +10333,7 @@
       <c r="I4" s="20">
         <v>8.9</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="140"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -5735,7 +10367,7 @@
       <c r="I5" s="20">
         <v>6.9</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="140"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -5769,7 +10401,7 @@
       <c r="I6" s="20">
         <v>10.9</v>
       </c>
-      <c r="J6" s="89"/>
+      <c r="J6" s="140"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -5803,7 +10435,7 @@
       <c r="I7" s="20">
         <v>2.9</v>
       </c>
-      <c r="J7" s="89"/>
+      <c r="J7" s="140"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -5937,18 +10569,18 @@
       <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -5978,10 +10610,10 @@
       <c r="G14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="88"/>
+      <c r="I14" s="139"/>
       <c r="J14" s="17" t="s">
         <v>53</v>
       </c>
@@ -6019,11 +10651,11 @@
         <f>VLOOKUP(F15,Sobremesas,2)</f>
         <v>Milkshake</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="134">
         <f>VLOOKUP(F15,Sobremesas,3)</f>
         <v>8.9</v>
       </c>
-      <c r="I15" s="83"/>
+      <c r="I15" s="134"/>
       <c r="J15" s="21">
         <f>SUM(E15,H15)</f>
         <v>26.4</v>
@@ -6086,6 +10718,928 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="69">
+        <v>2300</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="69">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="69">
+        <v>1300</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="111" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="69">
+        <v>980</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="69">
+        <v>2300</v>
+      </c>
+      <c r="D6" s="111" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="111" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="69">
+        <v>1300</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="69">
+        <v>1100</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="69">
+        <v>1350</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="207" t="s">
+        <v>458</v>
+      </c>
+      <c r="B11" s="207"/>
+      <c r="C11" s="72"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="208" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="209" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>461</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="113" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="124">
+        <v>1</v>
+      </c>
+      <c r="C5" s="210">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D5" s="66">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="66">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="124">
+        <v>1</v>
+      </c>
+      <c r="C6" s="210">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="D6" s="66">
+        <v>2300</v>
+      </c>
+      <c r="E6" s="66">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="124">
+        <v>2</v>
+      </c>
+      <c r="C7" s="210">
+        <v>1</v>
+      </c>
+      <c r="D7" s="66">
+        <v>3600</v>
+      </c>
+      <c r="E7" s="66">
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="211" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="220" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220" t="s">
+        <v>479</v>
+      </c>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="217" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>469</v>
+      </c>
+      <c r="E2" s="115" t="s">
+        <v>470</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="I2" s="213" t="s">
+        <v>478</v>
+      </c>
+      <c r="J2" s="213" t="s">
+        <v>474</v>
+      </c>
+      <c r="K2" s="213" t="s">
+        <v>475</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="M2" s="213" t="s">
+        <v>477</v>
+      </c>
+      <c r="N2" s="217" t="s">
+        <v>286</v>
+      </c>
+      <c r="O2" s="213" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="215">
+        <v>2500</v>
+      </c>
+      <c r="C3" s="216">
+        <f>B3*$B$12</f>
+        <v>200</v>
+      </c>
+      <c r="D3" s="216">
+        <f>B3*$B$13</f>
+        <v>150</v>
+      </c>
+      <c r="E3" s="215">
+        <v>500</v>
+      </c>
+      <c r="F3" s="115">
+        <v>2</v>
+      </c>
+      <c r="G3" s="216">
+        <f>F3*$B$14</f>
+        <v>240</v>
+      </c>
+      <c r="H3" s="115">
+        <v>50</v>
+      </c>
+      <c r="I3" s="46">
+        <v>0</v>
+      </c>
+      <c r="J3" s="214">
+        <f>B3/176</f>
+        <v>14.204545454545455</v>
+      </c>
+      <c r="K3" s="214">
+        <f>I3*J3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="46">
+        <v>2</v>
+      </c>
+      <c r="M3" s="214">
+        <f>L3*$E$12</f>
+        <v>120</v>
+      </c>
+      <c r="N3" s="218">
+        <f>B3-C3-D3-E3-G3+J3+K3+M3</f>
+        <v>1544.2045454545455</v>
+      </c>
+      <c r="O3" s="219">
+        <f>B3*$B$15</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="215">
+        <v>1950</v>
+      </c>
+      <c r="C4" s="216">
+        <f t="shared" ref="C4:C8" si="0">B4*$B$12</f>
+        <v>156</v>
+      </c>
+      <c r="D4" s="216">
+        <f t="shared" ref="D4:D8" si="1">B4*$B$13</f>
+        <v>117</v>
+      </c>
+      <c r="E4" s="215">
+        <v>100</v>
+      </c>
+      <c r="F4" s="115">
+        <v>3</v>
+      </c>
+      <c r="G4" s="216">
+        <f t="shared" ref="G4:G8" si="2">F4*$B$14</f>
+        <v>360</v>
+      </c>
+      <c r="H4" s="115">
+        <v>0</v>
+      </c>
+      <c r="I4" s="46">
+        <v>20</v>
+      </c>
+      <c r="J4" s="214">
+        <f t="shared" ref="J4:J8" si="3">B4/176</f>
+        <v>11.079545454545455</v>
+      </c>
+      <c r="K4" s="214">
+        <f t="shared" ref="K4:K8" si="4">I4*J4</f>
+        <v>221.59090909090909</v>
+      </c>
+      <c r="L4" s="46">
+        <v>0</v>
+      </c>
+      <c r="M4" s="214">
+        <f t="shared" ref="M4:M8" si="5">L4*$E$12</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="218">
+        <f t="shared" ref="N4:N8" si="6">B4-C4-D4-E4-G4+J4+K4+M4</f>
+        <v>1449.6704545454545</v>
+      </c>
+      <c r="O4" s="219">
+        <f t="shared" ref="O4:O8" si="7">B4*$B$15</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="215">
+        <v>1870</v>
+      </c>
+      <c r="C5" s="216">
+        <f t="shared" si="0"/>
+        <v>149.6</v>
+      </c>
+      <c r="D5" s="216">
+        <f t="shared" si="1"/>
+        <v>112.2</v>
+      </c>
+      <c r="E5" s="215">
+        <v>700</v>
+      </c>
+      <c r="F5" s="115">
+        <v>2</v>
+      </c>
+      <c r="G5" s="216">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="H5" s="115">
+        <v>0</v>
+      </c>
+      <c r="I5" s="46">
+        <v>16</v>
+      </c>
+      <c r="J5" s="214">
+        <f t="shared" si="3"/>
+        <v>10.625</v>
+      </c>
+      <c r="K5" s="214">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="L5" s="46">
+        <v>1</v>
+      </c>
+      <c r="M5" s="214">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="N5" s="218">
+        <f t="shared" si="6"/>
+        <v>908.82500000000005</v>
+      </c>
+      <c r="O5" s="219">
+        <f t="shared" si="7"/>
+        <v>149.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="215">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="216">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D6" s="216">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="E6" s="215">
+        <v>3600</v>
+      </c>
+      <c r="F6" s="115">
+        <v>1</v>
+      </c>
+      <c r="G6" s="216">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="H6" s="115">
+        <v>100</v>
+      </c>
+      <c r="I6" s="46">
+        <v>3</v>
+      </c>
+      <c r="J6" s="214">
+        <f t="shared" si="3"/>
+        <v>56.81818181818182</v>
+      </c>
+      <c r="K6" s="214">
+        <f t="shared" si="4"/>
+        <v>170.45454545454547</v>
+      </c>
+      <c r="L6" s="46">
+        <v>3</v>
+      </c>
+      <c r="M6" s="214">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="N6" s="218">
+        <f t="shared" si="6"/>
+        <v>5287.272727272727</v>
+      </c>
+      <c r="O6" s="219">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="105" t="s">
+        <v>480</v>
+      </c>
+      <c r="B7" s="215">
+        <v>6400</v>
+      </c>
+      <c r="C7" s="216">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="D7" s="216">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="E7" s="215">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="115">
+        <v>2</v>
+      </c>
+      <c r="G7" s="216">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="H7" s="115">
+        <v>150</v>
+      </c>
+      <c r="I7" s="46">
+        <v>0</v>
+      </c>
+      <c r="J7" s="214">
+        <f t="shared" si="3"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="K7" s="214">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0</v>
+      </c>
+      <c r="M7" s="214">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="218">
+        <f t="shared" si="6"/>
+        <v>3300.3636363636365</v>
+      </c>
+      <c r="O7" s="219">
+        <f t="shared" si="7"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="215">
+        <v>1700</v>
+      </c>
+      <c r="C8" s="216">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="D8" s="216">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E8" s="215">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="115">
+        <v>4</v>
+      </c>
+      <c r="G8" s="216">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="H8" s="115">
+        <v>80</v>
+      </c>
+      <c r="I8" s="46">
+        <v>10</v>
+      </c>
+      <c r="J8" s="214">
+        <f t="shared" si="3"/>
+        <v>9.6590909090909083</v>
+      </c>
+      <c r="K8" s="214">
+        <f t="shared" si="4"/>
+        <v>96.590909090909079</v>
+      </c>
+      <c r="L8" s="46">
+        <v>1</v>
+      </c>
+      <c r="M8" s="214">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="N8" s="218">
+        <f t="shared" si="6"/>
+        <v>148.25</v>
+      </c>
+      <c r="O8" s="219">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="212" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="47">
+        <f>SUM(B3:B8)</f>
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="160" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" s="160"/>
+      <c r="D11" s="160" t="s">
+        <v>479</v>
+      </c>
+      <c r="E11" s="160"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="111" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" s="91">
+        <v>0.08</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>484</v>
+      </c>
+      <c r="E12" s="72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="111" t="s">
+        <v>483</v>
+      </c>
+      <c r="B13" s="91">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="111" t="s">
+        <v>472</v>
+      </c>
+      <c r="B14" s="69">
+        <v>120</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>487</v>
+      </c>
+      <c r="E14" s="72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="112" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" s="91">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="112" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="26">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="26">
+        <v>2200</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" s="26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" s="26">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="26">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6111,22 +11665,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="93"/>
+      <c r="E2" s="144"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -6140,45 +11694,45 @@
       </c>
       <c r="E3" s="29">
         <f ca="1">NOW()</f>
-        <v>44899.69787384259</v>
+        <v>44906.68221712963</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="92" t="str">
+      <c r="B4" s="143" t="str">
         <f>VLOOKUP(B3,Tab_Clientes,2)</f>
         <v>Rodrigo</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="91" t="str">
+      <c r="B5" s="142" t="str">
         <f>VLOOKUP(B3,Tab_Clientes,3)</f>
         <v>R. Rosa</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="92" t="str">
+      <c r="B6" s="143" t="str">
         <f>VLOOKUP(B3,Tab_Clientes,4)</f>
         <v>(51) 999792467</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="143"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -6837,40 +12391,40 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="6">
         <f>COUNTIF(B22:B25,"Alimenticio")</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="6">
         <f>COUNTIF(B22:B25,"Higiene")</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="96"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="26">
         <f>SUMIF(B22:B25,"Alimenticio",C22:C25)</f>
         <v>8733</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="147" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="96"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="26">
         <f>SUMIF(B22:B25,"Vestuário",C22:C25)</f>
         <v>467</v>
@@ -7119,16 +12673,16 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="148" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="46" t="s">
@@ -7443,30 +12997,30 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="94"/>
+      <c r="B62" s="145"/>
       <c r="C62" s="51">
         <f>SUMIF(F51:F59,"Carrefour",H51:H59)</f>
         <v>42.6</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="94" t="s">
+      <c r="A63" s="145" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="94"/>
+      <c r="B63" s="145"/>
       <c r="C63" s="51">
         <f>SUMIF(F51:F59,"Barateiro",H51:H59)</f>
         <v>71.649999999999991</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="94"/>
+      <c r="B64" s="145"/>
       <c r="C64" s="51">
         <f>SUMIF(F51:F59,"Extra",H51:H59)</f>
         <v>14.8</v>
@@ -7484,10 +13038,10 @@
     <mergeCell ref="A49:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="G44:G47">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"contratar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"demitir"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7518,26 +13072,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="152" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
     </row>
     <row r="3" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
@@ -7749,64 +13303,64 @@
       <c r="A12" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="153" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="102"/>
+      <c r="C12" s="153"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>0</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="98"/>
+      <c r="C13" s="149"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>19</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="149" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="98"/>
+      <c r="C14" s="149"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>25</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="149"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>30</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="98"/>
+      <c r="C16" s="149"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>40</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="149"/>
     </row>
     <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="150" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
@@ -8017,10 +13571,10 @@
     <mergeCell ref="B14:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G10">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"não"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"sim"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8051,30 +13605,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108" t="s">
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="108"/>
+      <c r="D3" s="160"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
       <c r="C4" s="70" t="s">
         <v>210</v>
       </c>
@@ -8083,8 +13637,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="159"/>
       <c r="C5" s="69">
         <v>500</v>
       </c>
@@ -8331,38 +13885,38 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="B19" s="110"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="72">
         <f>SUMIF(C8:C17,"C",D8:D17)</f>
         <v>4100</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="162" t="s">
         <v>218</v>
       </c>
-      <c r="B20" s="110"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="72">
         <f>SUMIF(C8:C17,"D",D8:D17)</f>
         <v>3169</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="154" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -8383,10 +13937,10 @@
       <c r="F23" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="71" t="s">
@@ -8407,10 +13961,10 @@
       <c r="F24" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="71" t="s">
@@ -8431,30 +13985,30 @@
       <c r="F25" s="72">
         <v>12</v>
       </c>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
     </row>
     <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="157" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="155" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="155"/>
       <c r="C28" s="78">
         <v>0.35</v>
       </c>
@@ -8475,15 +14029,15 @@
       <c r="E30" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="111" t="s">
+      <c r="F30" s="80" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="71" t="s">
@@ -8511,9 +14065,9 @@
         <f>F31-(F31*$C$28)</f>
         <v>2.5350000000000001</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="71" t="s">
@@ -8541,9 +14095,9 @@
         <f t="shared" ref="G32:G36" si="5">F32-(F32*$C$28)</f>
         <v>1.17</v>
       </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="71" t="s">
@@ -8571,9 +14125,9 @@
         <f t="shared" si="5"/>
         <v>4.2249999999999996</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="71" t="s">
@@ -8601,9 +14155,9 @@
         <f t="shared" si="5"/>
         <v>13.65</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="71" t="s">
@@ -8631,9 +14185,9 @@
         <f t="shared" si="5"/>
         <v>0.84500000000000008</v>
       </c>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="71" t="s">
@@ -8661,9 +14215,9 @@
         <f t="shared" si="5"/>
         <v>15.600000000000001</v>
       </c>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8679,18 +14233,18 @@
     <mergeCell ref="H30:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:E17">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F17">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"tudo ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"acima do máximo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"abaixo do mínimo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8719,12 +14273,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="163" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -8771,18 +14325,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="164" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8840,19 +14394,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="80" t="s">
         <v>240</v>
       </c>
     </row>
@@ -8968,193 +14522,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="165" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="174"/>
     </row>
     <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="166" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="129" t="s">
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="167" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="129" t="s">
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="str">
+      <c r="A10" s="170" t="str">
         <f>CONCATENATE(C14," ",C15," ",C16)</f>
         <v xml:space="preserve">  Hardware</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="134" t="str">
+      <c r="B10" s="171"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="170" t="str">
         <f>CONCATENATE(H14," ",H15," ",H16)</f>
         <v xml:space="preserve"> Tarde </v>
       </c>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="134" t="str">
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="170" t="str">
         <f>CONCATENATE(L14," ",L15)</f>
         <v xml:space="preserve"> Parcelado</v>
       </c>
-      <c r="I10" s="135"/>
-      <c r="J10" s="136"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="129" t="s">
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="167" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="116" t="s">
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="175" t="s">
         <v>264</v>
       </c>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="126" t="b">
+      <c r="B14" s="84" t="b">
         <v>0</v>
       </c>
       <c r="C14" s="58" t="str">
         <f>IF(B14=TRUE,"Informática","")</f>
         <v/>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="183" t="s">
         <v>274</v>
       </c>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="126" t="b">
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="84" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="126" t="str">
+      <c r="H14" s="84" t="str">
         <f>IF(G14=TRUE,"Manhã","")</f>
         <v/>
       </c>
-      <c r="I14" s="128" t="s">
+      <c r="I14" s="185" t="s">
         <v>270</v>
       </c>
-      <c r="J14" s="127"/>
+      <c r="J14" s="183"/>
       <c r="K14" s="5" t="b">
         <v>0</v>
       </c>
@@ -9164,21 +14718,21 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="83" t="s">
         <v>266</v>
       </c>
       <c r="B15" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="58" t="str">
-        <f t="shared" ref="C15:C16" si="0">IF(B15=TRUE,"Web Design","")</f>
+        <f t="shared" ref="C15" si="0">IF(B15=TRUE,"Web Design","")</f>
         <v/>
       </c>
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="184" t="s">
         <v>268</v>
       </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
       <c r="G15" s="5" t="b">
         <v>1</v>
       </c>
@@ -9186,10 +14740,10 @@
         <f>IF(G15=TRUE,"Tarde","")</f>
         <v>Tarde</v>
       </c>
-      <c r="I15" s="125" t="s">
+      <c r="I15" s="186" t="s">
         <v>271</v>
       </c>
-      <c r="J15" s="124"/>
+      <c r="J15" s="184"/>
       <c r="K15" s="5" t="b">
         <v>1</v>
       </c>
@@ -9199,7 +14753,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="83" t="s">
         <v>267</v>
       </c>
       <c r="B16" s="5" t="b">
@@ -9209,11 +14763,11 @@
         <f>IF(B16=TRUE,"Hardware","")</f>
         <v>Hardware</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="184" t="s">
         <v>269</v>
       </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="5" t="b">
         <v>0</v>
       </c>
@@ -9221,54 +14775,54 @@
         <f>IF(G16=TRUE,"Noite","")</f>
         <v/>
       </c>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="120" t="s">
+      <c r="B18" s="177"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="182" t="s">
         <v>259</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="137" t="s">
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="H18" s="138"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="120" t="s">
+      <c r="H18" s="177"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="182" t="s">
         <v>272</v>
       </c>
-      <c r="K18" s="120"/>
+      <c r="K18" s="182"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="105" t="str">
+      <c r="A19" s="156" t="str">
         <f>D1</f>
         <v>JOCELAINE GRASSI CONSTANTE</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="118" t="str">
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="179" t="str">
         <f>A10</f>
         <v xml:space="preserve">  Hardware</v>
       </c>
-      <c r="E19" s="133"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="118" t="str">
+      <c r="E19" s="180"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="179" t="str">
         <f>D10</f>
         <v xml:space="preserve"> Tarde </v>
       </c>
-      <c r="H19" s="133"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="118" t="str">
+      <c r="H19" s="180"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="179" t="str">
         <f>H10</f>
         <v xml:space="preserve"> Parcelado</v>
       </c>
-      <c r="K19" s="132"/>
+      <c r="K19" s="181"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H21" s="67"/>
@@ -9300,7 +14854,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D19:F19"/>
@@ -9309,32 +14867,29 @@
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="A2:J7"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A2:J7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13313" r:id="rId3" name="Group Box 1">
+            <control shapeId="13313" r:id="rId4" name="Group Box 1">
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9356,7 +14911,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13314" r:id="rId4" name="Check Box 2">
+            <control shapeId="13314" r:id="rId5" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9378,7 +14933,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13315" r:id="rId5" name="Check Box 3">
+            <control shapeId="13315" r:id="rId6" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9400,7 +14955,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13316" r:id="rId6" name="Check Box 4">
+            <control shapeId="13316" r:id="rId7" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9422,7 +14977,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13318" r:id="rId7" name="Group Box 6">
+            <control shapeId="13318" r:id="rId8" name="Group Box 6">
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9444,7 +14999,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13319" r:id="rId8" name="Check Box 7">
+            <control shapeId="13319" r:id="rId9" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9466,7 +15021,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13320" r:id="rId9" name="Check Box 8">
+            <control shapeId="13320" r:id="rId10" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9488,7 +15043,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13321" r:id="rId10" name="Check Box 9">
+            <control shapeId="13321" r:id="rId11" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9510,7 +15065,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13322" r:id="rId11" name="Group Box 10">
+            <control shapeId="13322" r:id="rId12" name="Group Box 10">
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9532,7 +15087,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13323" r:id="rId12" name="Check Box 11">
+            <control shapeId="13323" r:id="rId13" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9554,7 +15109,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13324" r:id="rId13" name="Check Box 12">
+            <control shapeId="13324" r:id="rId14" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -9576,7 +15131,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13326" r:id="rId14" name="Button 14">
+            <control shapeId="13326" r:id="rId15" name="Button 14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!cadastro">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -9598,7 +15153,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="13327" r:id="rId15" name="Button 15">
+            <control shapeId="13327" r:id="rId16" name="Button 15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Limpar">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
